--- a/tianwen_block/语音控制1.0/model/user_file/cmd_info/[60000]{cmd_info}.xlsx
+++ b/tianwen_block/语音控制1.0/model/user_file/cmd_info/[60000]{cmd_info}.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O49"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,7 +539,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天问</t>
+          <t>玛卡巴卡</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="F2" s="2" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
@@ -598,7 +598,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>增加音量</t>
+          <t>调大音量</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
@@ -606,7 +606,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0x1E41941</t>
+          <t>0x1E41953</t>
         </is>
       </c>
       <c r="F3" s="2" t="n">
@@ -642,7 +642,7 @@
       </c>
       <c r="M3" s="2" t="inlineStr">
         <is>
-          <t>10502</t>
+          <t>10515</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       <c r="B4" s="2" t="n"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>降低音量</t>
+          <t>调小音量</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
@@ -658,7 +658,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0x1E4199A</t>
+          <t>0x1E41988</t>
         </is>
       </c>
       <c r="F4" s="2" t="n">
@@ -694,7 +694,7 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>10502</t>
+          <t>10515</t>
         </is>
       </c>
     </row>
@@ -702,7 +702,7 @@
       <c r="B5" s="2" t="n"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>当前音量</t>
+          <t>开个灯</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
@@ -714,7 +714,7 @@
         </is>
       </c>
       <c r="F5" s="2" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>10503</t>
+          <t>10515</t>
         </is>
       </c>
     </row>
@@ -754,7 +754,7 @@
       <c r="B6" s="2" t="n"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>开灯</t>
+          <t>关个灯</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
@@ -762,11 +762,11 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0x1E5B581</t>
+          <t>0x00</t>
         </is>
       </c>
       <c r="F6" s="2" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
@@ -798,7 +798,7 @@
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>10526</t>
+          <t>10515</t>
         </is>
       </c>
     </row>
@@ -806,19 +806,19 @@
       <c r="B7" s="2" t="n"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>关灯</t>
+          <t>开个空调</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>10507</v>
+        <v>10505</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0x1E5B5C1</t>
+          <t>0x00</t>
         </is>
       </c>
       <c r="F7" s="2" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10526</t>
+          <t>10515</t>
         </is>
       </c>
     </row>
@@ -858,19 +858,19 @@
       <c r="B8" s="2" t="n"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>开空调</t>
+          <t>关个空调</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>10510</v>
+        <v>10506</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0x1E41941</t>
+          <t>0x00</t>
         </is>
       </c>
       <c r="F8" s="2" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
@@ -902,7 +902,7 @@
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>10526</t>
+          <t>10515</t>
         </is>
       </c>
     </row>
@@ -910,19 +910,19 @@
       <c r="B9" s="2" t="n"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>关空调</t>
+          <t>你会画圆角矩形吗</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>10513</v>
+        <v>10507</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0x1E41984</t>
+          <t>0x00</t>
         </is>
       </c>
       <c r="F9" s="2" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
@@ -954,7 +954,7 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>10526</t>
+          <t>10510</t>
         </is>
       </c>
     </row>
@@ -962,11 +962,11 @@
       <c r="B10" s="2" t="n"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>圆角矩形</t>
+          <t>你会画长方形吗</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>10516</v>
+        <v>10508</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="F10" s="2" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>10519</t>
+          <t>10510</t>
         </is>
       </c>
     </row>
@@ -1014,11 +1014,11 @@
       <c r="B11" s="2" t="n"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>长方形</t>
+          <t>你会画圆形吗</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>10517</v>
+        <v>10509</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="F11" s="2" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         </is>
       </c>
       <c r="K11" s="2" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>10519</t>
+          <t>10510</t>
         </is>
       </c>
     </row>
@@ -1066,11 +1066,11 @@
       <c r="B12" s="2" t="n"/>
       <c r="C12" t="inlineStr">
         <is>
-          <t>圆形</t>
+          <t>你会画三角形吗</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>10518</v>
+        <v>10510</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="F12" s="2" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>10519</t>
+          <t>10510</t>
         </is>
       </c>
     </row>
@@ -1118,11 +1118,11 @@
       <c r="B13" s="2" t="n"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>三角形</t>
+          <t>显示当前温度</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>10519</v>
+        <v>10511</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="F13" s="2" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>10519</t>
+          <t>10515</t>
         </is>
       </c>
     </row>
@@ -1170,11 +1170,11 @@
       <c r="B14" s="2" t="n"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>当前温度</t>
+          <t>显示当前湿度</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>10520</v>
+        <v>10512</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="F14" s="2" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>10520</t>
+          <t>10515</t>
         </is>
       </c>
     </row>
@@ -1222,15 +1222,15 @@
       <c r="B15" s="2" t="n"/>
       <c r="C15" t="inlineStr">
         <is>
-          <t>当前湿度</t>
+          <t>播放音乐</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>10522</v>
+        <v>10513</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0x1E41F41</t>
+          <t>0x1E41961</t>
         </is>
       </c>
       <c r="F15" s="2" t="n">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>10522</t>
+          <t>10513</t>
         </is>
       </c>
     </row>
@@ -1274,11 +1274,11 @@
       <c r="B16" s="2" t="n"/>
       <c r="C16" t="inlineStr">
         <is>
-          <t>当前时间</t>
+          <t>显示时间</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>10524</v>
+        <v>10514</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1309,7 +1309,7 @@
         </is>
       </c>
       <c r="K16" s="2" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>10526</t>
+          <t>10515</t>
         </is>
       </c>
     </row>
@@ -1326,11 +1326,11 @@
       <c r="B17" s="2" t="n"/>
       <c r="C17" t="inlineStr">
         <is>
-          <t>显示</t>
+          <t>演示</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>10526</v>
+        <v>10515</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>10526</t>
+          <t>10515</t>
         </is>
       </c>
     </row>
@@ -1522,1427 +1522,6 @@
       </c>
       <c r="M20" s="2" t="n">
         <v>10003</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>10505</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>自定义</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>10514</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr"/>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>10506</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>自定义</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>10515</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>10508</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>自定义</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>10514</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr"/>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>10509</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>自定义</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>10515</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr"/>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>10511</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>自定义</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>10514</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr"/>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>10512</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>自定义</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>10515</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr"/>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>10514</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>自定义</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>10514</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr"/>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>10515</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>自定义</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>10515</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr"/>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>10521</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>自定义</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>10521</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr"/>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>10523</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>自定义</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>10523</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr"/>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>10525</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>自定义</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>10527</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr"/>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>10527</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>自定义</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>10527</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr"/>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>10084</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>自定义</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>10084</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr"/>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>10085</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>自定义</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>10085</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr"/>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>10086</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>自定义</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>10086</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr"/>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>10087</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>自定义</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>10087</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr"/>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>10088</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>自定义</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>10088</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr"/>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>10089</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>自定义</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>10089</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr"/>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>10090</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>自定义</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>10090</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr"/>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>10091</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>自定义</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>10091</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr"/>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>10092</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>自定义</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>10092</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr"/>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>10093</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>自定义</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>10093</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr"/>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>10094</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>自定义</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>10094</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr"/>
-      <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>10095</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>自定义</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>10095</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr"/>
-      <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>10096</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>自定义</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>10096</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr"/>
-      <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>10097</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>自定义</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>10097</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr"/>
-      <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
-        <v>10098</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>自定义</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>10098</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr"/>
-      <c r="B48" t="inlineStr"/>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>10099</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K48" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>自定义</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>10099</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr"/>
-      <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
-        <v>10100</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K49" t="n">
-        <v>0</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>自定义</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>10100</v>
       </c>
     </row>
   </sheetData>
@@ -3077,7 +1656,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天问</t>
+          <t>玛卡巴卡</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
@@ -3089,7 +1668,7 @@
         </is>
       </c>
       <c r="F2" s="2" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
